--- a/backtesting_result.xlsx
+++ b/backtesting_result.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44592.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B2" t="n">
-        <v>47208000</v>
+        <v>51678000</v>
       </c>
       <c r="C2" t="n">
-        <v>47647000</v>
+        <v>54110000</v>
       </c>
       <c r="D2" t="n">
-        <v>45624000</v>
+        <v>51084000</v>
       </c>
       <c r="E2" t="n">
-        <v>47266000</v>
+        <v>53511000</v>
       </c>
       <c r="F2" t="n">
-        <v>4554.26520595</v>
+        <v>6414.99045765</v>
       </c>
       <c r="G2" t="n">
-        <v>211275432696.9253</v>
+        <v>337553682455.3892</v>
       </c>
       <c r="H2" t="n">
-        <v>606900</v>
+        <v>1513000</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -534,496 +534,230 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44593.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B3" t="n">
-        <v>47304000</v>
+        <v>53511000</v>
       </c>
       <c r="C3" t="n">
-        <v>48270000</v>
+        <v>55321000</v>
       </c>
       <c r="D3" t="n">
-        <v>46869000</v>
+        <v>52325000</v>
       </c>
       <c r="E3" t="n">
-        <v>47760000</v>
+        <v>53651000</v>
       </c>
       <c r="F3" t="n">
-        <v>3944.00160976</v>
+        <v>10799.76838891</v>
       </c>
       <c r="G3" t="n">
-        <v>187434977994.1383</v>
+        <v>578845327237.1124</v>
       </c>
       <c r="H3" t="n">
-        <v>420300</v>
+        <v>1498000</v>
       </c>
       <c r="I3" t="n">
-        <v>47910900</v>
+        <v>55024000</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9968504035616113</v>
+        <v>0.975047252108171</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9968504035616113</v>
+        <v>0.975047252108171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3149596438388746</v>
+        <v>2.4952747891829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44594.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B4" t="n">
-        <v>47784000</v>
+        <v>53651000</v>
       </c>
       <c r="C4" t="n">
-        <v>47900000</v>
+        <v>54000000</v>
       </c>
       <c r="D4" t="n">
-        <v>45401000</v>
+        <v>52560000</v>
       </c>
       <c r="E4" t="n">
-        <v>45517000</v>
+        <v>53660000</v>
       </c>
       <c r="F4" t="n">
-        <v>4684.82046753</v>
+        <v>5006.39849973</v>
       </c>
       <c r="G4" t="n">
-        <v>219281053640.675</v>
+        <v>266603510170.6266</v>
       </c>
       <c r="H4" t="n">
-        <v>749700</v>
+        <v>720000</v>
       </c>
       <c r="I4" t="n">
-        <v>48204300</v>
+        <v>55149000</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9968504035616113</v>
+        <v>0.975047252108171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3149596438388746</v>
+        <v>2.4952747891829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44595.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B5" t="n">
-        <v>45518000</v>
+        <v>53659000</v>
       </c>
       <c r="C5" t="n">
-        <v>45900000</v>
+        <v>55380000</v>
       </c>
       <c r="D5" t="n">
-        <v>44770000</v>
+        <v>52604000</v>
       </c>
       <c r="E5" t="n">
-        <v>45835000</v>
+        <v>53123000</v>
       </c>
       <c r="F5" t="n">
-        <v>3279.73787459</v>
+        <v>9079.394422650001</v>
       </c>
       <c r="G5" t="n">
-        <v>148839125406.1171</v>
+        <v>488428411754.5602</v>
       </c>
       <c r="H5" t="n">
-        <v>339000</v>
+        <v>1388000</v>
       </c>
       <c r="I5" t="n">
-        <v>46267700</v>
+        <v>54379000</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9769028485260854</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9968504035616113</v>
+        <v>0.9525264380320044</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3149596438388746</v>
+        <v>4.747356196799557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44596.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B6" t="n">
-        <v>45835000</v>
+        <v>53040000</v>
       </c>
       <c r="C6" t="n">
-        <v>50843000</v>
+        <v>53364000</v>
       </c>
       <c r="D6" t="n">
-        <v>45500000</v>
+        <v>51300000</v>
       </c>
       <c r="E6" t="n">
-        <v>50633000</v>
+        <v>51882000</v>
       </c>
       <c r="F6" t="n">
-        <v>7451.46465055</v>
+        <v>6124.94691657</v>
       </c>
       <c r="G6" t="n">
-        <v>355674962643.4388</v>
+        <v>321480090359.7405</v>
       </c>
       <c r="H6" t="n">
-        <v>1602900</v>
+        <v>1032000</v>
       </c>
       <c r="I6" t="n">
-        <v>46174000</v>
+        <v>54428000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09656949798588</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.093115746600577</v>
+        <v>0.9525264380320044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4.747356196799557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44597.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B7" t="n">
-        <v>50613000</v>
+        <v>51875000</v>
       </c>
       <c r="C7" t="n">
-        <v>51488000</v>
+        <v>52299000</v>
       </c>
       <c r="D7" t="n">
-        <v>50216000</v>
+        <v>50835000</v>
       </c>
       <c r="E7" t="n">
-        <v>50788000</v>
+        <v>51597000</v>
       </c>
       <c r="F7" t="n">
-        <v>5618.42220443</v>
+        <v>4680.16804965</v>
       </c>
       <c r="G7" t="n">
-        <v>285441834169.823</v>
+        <v>241620206211.6828</v>
       </c>
       <c r="H7" t="n">
-        <v>381600</v>
+        <v>732000</v>
       </c>
       <c r="I7" t="n">
-        <v>52215900</v>
+        <v>52907000</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.093115746600577</v>
+        <v>0.9525264380320044</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4.747356196799557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44598.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B8" t="n">
-        <v>50788000</v>
+        <v>51619000</v>
       </c>
       <c r="C8" t="n">
-        <v>52022000</v>
+        <v>51932000</v>
       </c>
       <c r="D8" t="n">
-        <v>50400000</v>
+        <v>51400000</v>
       </c>
       <c r="E8" t="n">
-        <v>51732000</v>
+        <v>51585000</v>
       </c>
       <c r="F8" t="n">
-        <v>4046.19621542</v>
+        <v>514.92553177</v>
       </c>
       <c r="G8" t="n">
-        <v>206661446937.4289</v>
+        <v>26604758913.06054</v>
       </c>
       <c r="H8" t="n">
-        <v>486600</v>
+        <v>266000</v>
       </c>
       <c r="I8" t="n">
-        <v>51169600</v>
+        <v>52351000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.010990900847378</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.105130073386172</v>
+        <v>0.9525264380320044</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44599.375</v>
-      </c>
-      <c r="B9" t="n">
-        <v>51678000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54110000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51084000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>53511000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6414.99045765</v>
-      </c>
-      <c r="G9" t="n">
-        <v>337553682455.3892</v>
-      </c>
-      <c r="H9" t="n">
-        <v>907800</v>
-      </c>
-      <c r="I9" t="n">
-        <v>52164600</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.025810607193384</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.133654151607938</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44600.375</v>
-      </c>
-      <c r="B10" t="n">
-        <v>53511000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55321000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>52325000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>53651000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10799.76838891</v>
-      </c>
-      <c r="G10" t="n">
-        <v>578845327237.1124</v>
-      </c>
-      <c r="H10" t="n">
-        <v>898800</v>
-      </c>
-      <c r="I10" t="n">
-        <v>54418800</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9858909053488868</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.117659317881274</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.410909465111315</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44601.375</v>
-      </c>
-      <c r="B11" t="n">
-        <v>53651000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>54000000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>52560000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>53660000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5006.39849973</v>
-      </c>
-      <c r="G11" t="n">
-        <v>266603510170.6266</v>
-      </c>
-      <c r="H11" t="n">
-        <v>432000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>54549800</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.117659317881274</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.410909465111315</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44602.375</v>
-      </c>
-      <c r="B12" t="n">
-        <v>53659000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>55380000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52604000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>53123000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9079.394422650001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>488428411754.5602</v>
-      </c>
-      <c r="H12" t="n">
-        <v>832800</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54091000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9821042317575936</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.097657945754505</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.175236980553307</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44603.375</v>
-      </c>
-      <c r="B13" t="n">
-        <v>53040000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53364000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51300000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>51882000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6124.94691657</v>
-      </c>
-      <c r="G13" t="n">
-        <v>321480090359.7405</v>
-      </c>
-      <c r="H13" t="n">
-        <v>619200</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53872800</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.097657945754505</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.175236980553307</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44604.375</v>
-      </c>
-      <c r="B14" t="n">
-        <v>51875000</v>
-      </c>
-      <c r="C14" t="n">
-        <v>52299000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50835000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>51597000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4680.16804965</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241620206211.6828</v>
-      </c>
-      <c r="H14" t="n">
-        <v>439200</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52494200</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.097657945754505</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.175236980553307</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44605.375</v>
-      </c>
-      <c r="B15" t="n">
-        <v>51619000</v>
-      </c>
-      <c r="C15" t="n">
-        <v>51932000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51400000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>51572000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>391.00042074</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20213636564.70216</v>
-      </c>
-      <c r="H15" t="n">
-        <v>159600</v>
-      </c>
-      <c r="I15" t="n">
-        <v>52058200</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.097657945754505</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.175236980553307</v>
+        <v>4.747356196799557</v>
       </c>
     </row>
   </sheetData>
